--- a/Резы/Респа для ПЕ-81б на 2020 год.xlsx
+++ b/Резы/Респа для ПЕ-81б на 2020 год.xlsx
@@ -2126,7 +2126,11 @@
       </c>
       <c r="G19" s="9" t="n"/>
       <c r="H19" s="8" t="n"/>
-      <c r="I19" s="16" t="n"/>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>404, 408</t>
+        </is>
+      </c>
       <c r="J19" s="6" t="inlineStr">
         <is>
           <t>Кондратьев В.П.</t>
@@ -2257,7 +2261,7 @@
       <c r="J23" s="10" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="37">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F5:H5"/>
@@ -2286,7 +2290,6 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I18:I19"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="A22:A23"/>
@@ -2932,7 +2935,9 @@
       <c r="E18" s="9" t="n"/>
       <c r="F18" s="8" t="n"/>
       <c r="G18" s="4" t="n"/>
-      <c r="H18" s="16" t="n"/>
+      <c r="H18" s="6" t="n">
+        <v>408</v>
+      </c>
       <c r="I18" s="6" t="inlineStr">
         <is>
           <t>Кондратьев В.П.</t>
@@ -2999,7 +3004,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="25">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="E6:G6"/>
@@ -3018,7 +3023,6 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="D3:G4"/>
-    <mergeCell ref="H17:H18"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A13:A16"/>
@@ -3661,7 +3665,12 @@
       </c>
       <c r="F18" s="9" t="n"/>
       <c r="G18" s="8" t="n"/>
-      <c r="H18" s="16" t="n"/>
+      <c r="H18" s="6" t="inlineStr">
+        <is>
+          <t>404
+408</t>
+        </is>
+      </c>
       <c r="I18" s="6" t="inlineStr">
         <is>
           <t>Ильиных Н.И.
@@ -3739,7 +3748,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
@@ -3757,7 +3766,6 @@
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H17:H18"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A13:A16"/>

--- a/Резы/Респа для ПЕ-81б на 2020 год.xlsx
+++ b/Резы/Респа для ПЕ-81б на 2020 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,10 +114,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -145,63 +145,63 @@
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>

--- a/Резы/Респа для ПЕ-81б на 2020 год.xlsx
+++ b/Резы/Респа для ПЕ-81б на 2020 год.xlsx
@@ -677,7 +677,7 @@
     <col width="76.39999999999999" customWidth="1" min="6" max="6"/>
     <col width="89.45" customWidth="1" min="7" max="7"/>
     <col width="17" customWidth="1" min="8" max="8"/>
-    <col width="29.5" customWidth="1" min="9" max="9"/>
+    <col width="26.5" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1">
@@ -770,13 +770,13 @@
       <c r="G3" s="4" t="n"/>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 408</t>
         </is>
       </c>
       <c r="I3" s="6" t="inlineStr">
         <is>
-          <t>Преображенский Ф.Ф.
+          <t>Мерзоцид Г.Ч.
 Кондратьев В.П.</t>
         </is>
       </c>
